--- a/DymonProject/DymonProject/Test Template.xlsx
+++ b/DymonProject/DymonProject/Test Template.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$N$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$O$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases (Example)'!$A$1:$P$28</definedName>
     <definedName name="issueCloseDates">'[1]Issue Log'!$F$6:$F$305</definedName>
     <definedName name="issueOpenDates">'[1]Issue Log'!$E$6:$E$305</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="190">
   <si>
     <t>Log Files</t>
   </si>
@@ -1028,9 +1028,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Swap Curve Construction - multiple currency</t>
-  </si>
-  <si>
     <t>Asset</t>
   </si>
   <si>
@@ -1063,11 +1060,6 @@
     <t>SunGuard</t>
   </si>
   <si>
-    <t>&lt;ICVS&gt;
-1) Disable Middle Future part
-2) Select currency and Date</t>
-  </si>
-  <si>
     <t>Interpolation: Linear / Loglinear / Piecewise Linear 
 Numerical method threshold: 10^-12
 Bootstrapping: Bootstrap and interpolation not separate process</t>
@@ -1075,9 +1067,6 @@
   <si>
     <t xml:space="preserve">The discount factor should not deviate from Bloomberg / Sunguard by 10^-8 
 </t>
-  </si>
-  <si>
-    <t>Bond Curve Construction - multiple currency</t>
   </si>
   <si>
     <t>1) Constuct a swap discount curve based on the following input:
@@ -1091,6 +1080,177 @@
   </si>
   <si>
     <t>On-the-run swap</t>
+  </si>
+  <si>
+    <t>1) Constuct a bond discount curve based on the following input:
+Generic Government Bond / Bills
+3) Get the correct dates for discount factors
+2) Compare the discount factor with Bloomberg and Sunguard</t>
+  </si>
+  <si>
+    <t>1) Closing bond price dated 03/04/2013
+Bills: 1M, 3M, 6M, 12M
+Bonds: 2Y, 3Y, 5Y, 7Y, 10Y, 30Y</t>
+  </si>
+  <si>
+    <t>Data: &lt;GT GOVT&gt;, &lt;GB GOVT&gt;</t>
+  </si>
+  <si>
+    <t>AC-SCC</t>
+  </si>
+  <si>
+    <t>AC-BCC</t>
+  </si>
+  <si>
+    <t>Generic Swap Test</t>
+  </si>
+  <si>
+    <t>Generic Bond Test</t>
+  </si>
+  <si>
+    <t>AC-GS</t>
+  </si>
+  <si>
+    <t>AC-GB</t>
+  </si>
+  <si>
+    <t>1) Price the input deposits and swaps using the swap curve constructed in AC-SCC
+2) Compare the price calculated from the swap curve with their original input value from Bloomberg</t>
+  </si>
+  <si>
+    <t>1) Closing price as indicated in AC-SCC
+2) The swap discount curve derived in AC-SCC</t>
+  </si>
+  <si>
+    <t>Data: &lt;IRSB&gt; &lt;BBC&gt;
+Swap Curve Builder: &lt;ICVS&gt;
+1) Disable Middle Future part
+2) Select currency and Date</t>
+  </si>
+  <si>
+    <t>Data: &lt;IRSB&gt; &lt;BBC&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The derived price of asset should not deviate from their input value by 10^-8 
+</t>
+  </si>
+  <si>
+    <t>Unit Test Case cpp File
+(including data file)</t>
+  </si>
+  <si>
+    <t>TestSwapCurve.ccp
+SwapRate.csv 
+DepositRate.csv</t>
+  </si>
+  <si>
+    <t>TestBondCurve.ccp
+BondRate.csv</t>
+  </si>
+  <si>
+    <t>1) Price the input generic bond using the bond curve constructed in AC-BCC
+2) Compare the bond price calculated from the bond curve with their original input value from Bloomberg</t>
+  </si>
+  <si>
+    <t>1) Closing price as indicated in AC-BCC
+2) The bond discount curve derived in AC-BCC</t>
+  </si>
+  <si>
+    <t>AC-FSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The derived price of bond should not deviate from their input value by 10^-8 
+</t>
+  </si>
+  <si>
+    <t>AC-OTRS</t>
+  </si>
+  <si>
+    <t>TestGenericSwap.ccp
+SwapRate.csv 
+DepositRate.csv</t>
+  </si>
+  <si>
+    <t>TestGenericBond.ccp
+BondRate.csv</t>
+  </si>
+  <si>
+    <t>Swap Manager: &lt;SWPM&gt;</t>
+  </si>
+  <si>
+    <t>1) Price a forward starting swap using the swap curve constructed in AC-SCC
+2) Compare the price calculated from the swap curve with that calculated from Bloomberg / Sunguard
+3) Derive the correct cashflow of coupon payments</t>
+  </si>
+  <si>
+    <t>1) Info of swaps with different tenors starting from diffent days in the future
+2) A set of discount factors either from AC-SCC or from user input</t>
+  </si>
+  <si>
+    <t>TestForwardStartingSwap.ccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The derived price of swap should not deviate from their value from Bloomberg / Sungard by 10^-8 
+</t>
+  </si>
+  <si>
+    <t>Swaption Vol Surface</t>
+  </si>
+  <si>
+    <t>USD
+GBP
+EUR</t>
+  </si>
+  <si>
+    <t>AC-SVS</t>
+  </si>
+  <si>
+    <t>Swap Curve Construction</t>
+  </si>
+  <si>
+    <t>Bond Curve Construction</t>
+  </si>
+  <si>
+    <t>Data: &lt;VCUB&gt;</t>
+  </si>
+  <si>
+    <t>TestSwaptionVolSurface.ccp</t>
+  </si>
+  <si>
+    <t>1) Mid IBOR black vol dated 03/04/2013
+Tenors:1M, 3M, 6M, 9M, 1Y, 2Y, 3Y, 4Y, 5Y, 6Y, 7Y, 8Y, 9Y, 10Y, 15Y, 20Y, 25Y, 30Y
+Expiry: 1Y, 2Y, 3Y, 4Y, 5Y, 6Y, 7Y, 8Y, 9Y, 10Y, 15Y, 20Y, 25Y, 30Y
+2)  set of discount factors either from AC-SCC or from user input</t>
+  </si>
+  <si>
+    <t>Interpolation: Piecewise Linear / SABR
+ATM SwaptionVol: Black-Vol</t>
+  </si>
+  <si>
+    <t>Swaption Test</t>
+  </si>
+  <si>
+    <t>AC-ST</t>
+  </si>
+  <si>
+    <t>Forward Implied Yield Curve</t>
+  </si>
+  <si>
+    <t>FX-Interest Rate Arbitrage: &lt;NDF&gt;</t>
+  </si>
+  <si>
+    <t>EUR
+GBP
+SGD</t>
+  </si>
+  <si>
+    <t>AC-FIYC</t>
+  </si>
+  <si>
+    <t>FX Vol Surface</t>
+  </si>
+  <si>
+    <t>Fx Option Test</t>
   </si>
 </sst>
 </file>
@@ -2326,12 +2486,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2342,13 +2502,13 @@
     <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="12" width="40.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="13" width="40.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2365,34 +2525,37 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="13" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>130</v>
       </c>
@@ -2400,38 +2563,40 @@
         <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="8" t="e">
-        <f>CONCATENATE(VLOOKUP($A2,#REF!,2,FALSE),"-",TEXT(E2,"000"))</f>
-        <v>#REF!</v>
+        <v>176</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" s="13" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>130</v>
       </c>
@@ -2439,21 +2604,38 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>177</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>130</v>
       </c>
@@ -2461,21 +2643,36 @@
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>130</v>
       </c>
@@ -2483,49 +2680,85 @@
         <v>12</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
@@ -2536,75 +2769,111 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -2616,15 +2885,18 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -2636,8 +2908,9 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" s="13" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>130</v>
       </c>
@@ -2656,8 +2929,9 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>130</v>
       </c>
@@ -2676,8 +2950,9 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>130</v>
       </c>
@@ -2696,8 +2971,9 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>130</v>
       </c>
@@ -2716,8 +2992,9 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>130</v>
       </c>
@@ -2736,8 +3013,9 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>130</v>
       </c>
@@ -2756,8 +3034,9 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>130</v>
       </c>
@@ -2776,8 +3055,9 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>130</v>
       </c>
@@ -2796,8 +3076,9 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>130</v>
       </c>
@@ -2816,8 +3097,9 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>130</v>
       </c>
@@ -2836,8 +3118,9 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>130</v>
       </c>
@@ -2856,8 +3139,9 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>130</v>
       </c>
@@ -2876,8 +3160,9 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>130</v>
       </c>
@@ -2896,8 +3181,9 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>130</v>
       </c>
@@ -2916,8 +3202,9 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>130</v>
       </c>
@@ -2936,8 +3223,9 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>130</v>
       </c>
@@ -2956,9 +3244,10 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N28"/>
+  <autoFilter ref="A1:O28"/>
   <conditionalFormatting sqref="H1">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
@@ -3655,7 +3944,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="150" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="165" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>28</v>
       </c>

--- a/DymonProject/DymonProject/Test Template.xlsx
+++ b/DymonProject/DymonProject/Test Template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>Component</t>
   </si>
@@ -90,11 +90,6 @@
     <t>PASS/ FAIL</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Closing price dated 03/04/2013
-Short End Terms: O/N,1 Wk,2 Wk, 1M, 2M, 3M, 4M, 5M, 6M, 7M, 8M, 9M, 10M, 11M, 1Y
-Long End Terms: 2Y, 3Y, 4Y, 5Y, 6Y, 7Y, 8Y, 9Y, 10Y, 15Y, 20Y, 25Y, 30Y, 40Y, 50Y </t>
-  </si>
-  <si>
     <t>BloomBerg</t>
   </si>
   <si>
@@ -238,11 +233,6 @@
     <t>Swaption Vol Surface</t>
   </si>
   <si>
-    <t>USD
-GBP
-EUR</t>
-  </si>
-  <si>
     <t>AC-SVS</t>
   </si>
   <si>
@@ -269,11 +259,6 @@
   </si>
   <si>
     <t>FX-Interest Rate Arbitrage: &lt;NDF&gt;</t>
-  </si>
-  <si>
-    <t>EUR
-GBP
-SGD</t>
   </si>
   <si>
     <t>AC-FIYC</t>
@@ -310,24 +295,6 @@
   </si>
   <si>
     <t>TestOnTheRunSwap.ccp</t>
-  </si>
-  <si>
-    <t>USD
-EUR
-GBP
-SGD
-MYR</t>
-  </si>
-  <si>
-    <t>EURUSD
-CADUSD
-USDJPY
-USDCNY</t>
-  </si>
-  <si>
-    <t>EURUSD
-CADUSD
-USDJPY</t>
   </si>
   <si>
     <t>TestSwaption.ccp</t>
@@ -413,6 +380,39 @@
   </si>
   <si>
     <t xml:space="preserve">The derived price of asset should not deviate from their input value by 10^-8 </t>
+  </si>
+  <si>
+    <t>USD
+EUR
+JPY
+SGD
+MYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Closing price dated 03/04/2013
+Short End Terms: O/N,1 Wk,2 Wk, 1M, 2M, 3M, 4M, 5M, 6M, 7M, 8M, 9M, 10M, 11M
+Long End Terms: 1Y, 2Y, 3Y, 4Y, 5Y, 6Y, 7Y, 8Y, 9Y, 10Y, 15Y, 20Y, 25Y, 30Y, 40Y, 50Y </t>
+  </si>
+  <si>
+    <t>USD
+JPY
+EUR
+AUD
+KRW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR
+TWD
+SGD
+CNY
+JPY
+</t>
+  </si>
+  <si>
+    <t>EURUSD
+USDJPY
+USDCNY
+USDKRW</t>
   </si>
 </sst>
 </file>
@@ -1609,9 +1609,9 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1657,13 +1657,13 @@
         <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1683,35 +1683,35 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1724,33 +1724,33 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1763,31 +1763,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1800,31 +1800,31 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -1837,31 +1837,31 @@
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1874,29 +1874,29 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1909,30 +1909,30 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1946,31 +1946,31 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1983,33 +1983,33 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -2022,33 +2022,33 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -2061,31 +2061,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
